--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1383.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1383.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.311335294614071</v>
+        <v>1.206652760505676</v>
       </c>
       <c r="B1">
-        <v>2.545944785728993</v>
+        <v>2.391429424285889</v>
       </c>
       <c r="C1">
-        <v>3.258658960523982</v>
+        <v>6.989912509918213</v>
       </c>
       <c r="D1">
-        <v>3.389338720746327</v>
+        <v>2.286118745803833</v>
       </c>
       <c r="E1">
-        <v>1.066119109941913</v>
+        <v>1.173157215118408</v>
       </c>
     </row>
   </sheetData>
